--- a/Excel2Lua/bin/Debug/excel/准点在线.xlsx
+++ b/Excel2Lua/bin/Debug/excel/准点在线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -265,9 +265,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -342,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,12 +375,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -721,7 +728,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="52.5" customHeight="1">
-      <c r="A2">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -755,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -820,16 +827,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="9">
@@ -838,7 +845,7 @@
       <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="13">
         <v>-1</v>
       </c>
       <c r="I2" s="9">
@@ -847,30 +854,30 @@
       <c r="K2" s="9">
         <v>1</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="13">
         <v>-1</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="12">
         <v>288</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="9">
@@ -879,7 +886,7 @@
       <c r="G3" s="9">
         <v>3</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="13">
         <v>-1</v>
       </c>
       <c r="I3" s="9">
@@ -888,24 +895,24 @@
       <c r="K3" s="9">
         <v>3</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="13">
         <v>-1</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="9">
@@ -914,7 +921,7 @@
       <c r="G4" s="9">
         <v>4</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="13">
         <v>-1</v>
       </c>
       <c r="I4" s="9">
@@ -923,21 +930,21 @@
       <c r="K4" s="9">
         <v>4</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="13">
         <v>-1</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -949,7 +956,7 @@
       <c r="G5" s="9">
         <v>2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="13">
         <v>-1</v>
       </c>
       <c r="I5" s="9">
@@ -958,7 +965,7 @@
       <c r="K5" s="9">
         <v>2</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="13">
         <v>-1</v>
       </c>
       <c r="M5" s="9">
@@ -990,7 +997,7 @@
       <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="13">
         <f>24*3600</f>
         <v>86400</v>
       </c>
@@ -1000,7 +1007,7 @@
       <c r="K6" s="9">
         <v>1</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="13">
         <f>24*3600</f>
         <v>86400</v>
       </c>

--- a/Excel2Lua/bin/Debug/excel/准点在线.xlsx
+++ b/Excel2Lua/bin/Debug/excel/准点在线.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
     <sheet name="准点在线" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -377,17 +377,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -728,7 +728,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="52.5" customHeight="1">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -845,7 +845,7 @@
       <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>-1</v>
       </c>
       <c r="I2" s="9">
@@ -854,16 +854,16 @@
       <c r="K2" s="9">
         <v>1</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="11">
         <v>-1</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="14">
         <v>288</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -886,7 +886,7 @@
       <c r="G3" s="9">
         <v>3</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>-1</v>
       </c>
       <c r="I3" s="9">
@@ -895,12 +895,12 @@
       <c r="K3" s="9">
         <v>3</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="11">
         <v>-1</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1">
       <c r="A4" s="10" t="s">
@@ -921,7 +921,7 @@
       <c r="G4" s="9">
         <v>4</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>-1</v>
       </c>
       <c r="I4" s="9">
@@ -930,12 +930,12 @@
       <c r="K4" s="9">
         <v>4</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <v>-1</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1">
       <c r="A5" s="10" t="s">
@@ -956,7 +956,7 @@
       <c r="G5" s="9">
         <v>2</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>-1</v>
       </c>
       <c r="I5" s="9">
@@ -965,7 +965,7 @@
       <c r="K5" s="9">
         <v>2</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <v>-1</v>
       </c>
       <c r="M5" s="9">
@@ -997,9 +997,8 @@
       <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="13">
-        <f>24*3600</f>
-        <v>86400</v>
+      <c r="H6" s="11">
+        <v>1</v>
       </c>
       <c r="I6" s="9">
         <v>31188</v>
@@ -1007,9 +1006,8 @@
       <c r="K6" s="9">
         <v>1</v>
       </c>
-      <c r="L6" s="13">
-        <f>24*3600</f>
-        <v>86400</v>
+      <c r="L6" s="11">
+        <v>1</v>
       </c>
       <c r="M6" s="9">
         <v>688</v>
